--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H2">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I2">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J2">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.2044774161729</v>
+        <v>3.480095666666667</v>
       </c>
       <c r="N2">
-        <v>2.2044774161729</v>
+        <v>10.440287</v>
       </c>
       <c r="O2">
-        <v>0.01321891445947057</v>
+        <v>0.01473490062525521</v>
       </c>
       <c r="P2">
-        <v>0.01321891445947057</v>
+        <v>0.01577541664427219</v>
       </c>
       <c r="Q2">
-        <v>48.77336324227297</v>
+        <v>83.38214558731201</v>
       </c>
       <c r="R2">
-        <v>48.77336324227297</v>
+        <v>750.439310285808</v>
       </c>
       <c r="S2">
-        <v>0.001954295246492459</v>
+        <v>0.002167575772923471</v>
       </c>
       <c r="T2">
-        <v>0.001954295246492459</v>
+        <v>0.002443133853295116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H3">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I3">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J3">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>72.2767302348439</v>
+        <v>75.525599</v>
       </c>
       <c r="N3">
-        <v>72.2767302348439</v>
+        <v>226.576797</v>
       </c>
       <c r="O3">
-        <v>0.4333997288315594</v>
+        <v>0.3197791964707123</v>
       </c>
       <c r="P3">
-        <v>0.4333997288315594</v>
+        <v>0.3423606433999065</v>
       </c>
       <c r="Q3">
-        <v>1599.099719437239</v>
+        <v>1809.572809077072</v>
       </c>
       <c r="R3">
-        <v>1599.099719437239</v>
+        <v>16286.15528169365</v>
       </c>
       <c r="S3">
-        <v>0.06407417435701904</v>
+        <v>0.04704107998983163</v>
       </c>
       <c r="T3">
-        <v>0.06407417435701904</v>
+        <v>0.05302128601655062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H4">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I4">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J4">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.089277683948</v>
+        <v>75.97191733333334</v>
       </c>
       <c r="N4">
-        <v>32.089277683948</v>
+        <v>227.915752</v>
       </c>
       <c r="O4">
-        <v>0.1924199420952639</v>
+        <v>0.3216689308110315</v>
       </c>
       <c r="P4">
-        <v>0.1924199420952639</v>
+        <v>0.3443838227428625</v>
       </c>
       <c r="Q4">
-        <v>709.9650852302525</v>
+        <v>1820.266474945152</v>
       </c>
       <c r="R4">
-        <v>709.9650852302525</v>
+        <v>16382.39827450637</v>
       </c>
       <c r="S4">
-        <v>0.02844752338174896</v>
+        <v>0.04731906913122542</v>
       </c>
       <c r="T4">
-        <v>0.02844752338174896</v>
+        <v>0.05333461517010155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H5">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I5">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J5">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.0602378691501</v>
+        <v>34.46883</v>
       </c>
       <c r="N5">
-        <v>22.0602378691501</v>
+        <v>103.40649</v>
       </c>
       <c r="O5">
-        <v>0.1322818710722491</v>
+        <v>0.1459427651899269</v>
       </c>
       <c r="P5">
-        <v>0.1322818710722491</v>
+        <v>0.156248622616578</v>
       </c>
       <c r="Q5">
-        <v>488.0757620420165</v>
+        <v>825.8637912782399</v>
       </c>
       <c r="R5">
-        <v>488.0757620420165</v>
+        <v>7432.774121504159</v>
       </c>
       <c r="S5">
-        <v>0.01955666122405476</v>
+        <v>0.02146889280793269</v>
       </c>
       <c r="T5">
-        <v>0.01955666122405476</v>
+        <v>0.0241981754303711</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H6">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I6">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J6">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>38.1361790957576</v>
+        <v>46.734022</v>
       </c>
       <c r="N6">
-        <v>38.1361790957576</v>
+        <v>93.46804400000001</v>
       </c>
       <c r="O6">
-        <v>0.228679543541457</v>
+        <v>0.1978742069030739</v>
       </c>
       <c r="P6">
-        <v>0.228679543541457</v>
+        <v>0.1412314945963808</v>
       </c>
       <c r="Q6">
-        <v>843.7508599833523</v>
+        <v>1119.734455466016</v>
       </c>
       <c r="R6">
-        <v>843.7508599833523</v>
+        <v>6718.406732796096</v>
       </c>
       <c r="S6">
-        <v>0.03380817284833492</v>
+        <v>0.02910826125521429</v>
       </c>
       <c r="T6">
-        <v>0.03380817284833492</v>
+        <v>0.02187247749967768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H7">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I7">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J7">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.2044774161729</v>
+        <v>3.480095666666667</v>
       </c>
       <c r="N7">
-        <v>2.2044774161729</v>
+        <v>10.440287</v>
       </c>
       <c r="O7">
-        <v>0.01321891445947057</v>
+        <v>0.01473490062525521</v>
       </c>
       <c r="P7">
-        <v>0.01321891445947057</v>
+        <v>0.01577541664427219</v>
       </c>
       <c r="Q7">
-        <v>172.0894742620668</v>
+        <v>296.7050694831875</v>
       </c>
       <c r="R7">
-        <v>172.0894742620668</v>
+        <v>2670.345625348687</v>
       </c>
       <c r="S7">
-        <v>0.006895436754098043</v>
+        <v>0.007713050747079786</v>
       </c>
       <c r="T7">
-        <v>0.006895436754098043</v>
+        <v>0.008693590151618254</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H8">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I8">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J8">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>72.2767302348439</v>
+        <v>75.525599</v>
       </c>
       <c r="N8">
-        <v>72.2767302348439</v>
+        <v>226.576797</v>
       </c>
       <c r="O8">
-        <v>0.4333997288315594</v>
+        <v>0.3197791964707123</v>
       </c>
       <c r="P8">
-        <v>0.4333997288315594</v>
+        <v>0.3423606433999065</v>
       </c>
       <c r="Q8">
-        <v>5642.182775947288</v>
+        <v>6439.141404557467</v>
       </c>
       <c r="R8">
-        <v>5642.182775947288</v>
+        <v>57952.2726410172</v>
       </c>
       <c r="S8">
-        <v>0.2260760842778728</v>
+        <v>0.1673898747584041</v>
       </c>
       <c r="T8">
-        <v>0.2260760842778728</v>
+        <v>0.1886696995000624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H9">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I9">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J9">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.089277683948</v>
+        <v>75.97191733333334</v>
       </c>
       <c r="N9">
-        <v>32.089277683948</v>
+        <v>227.915752</v>
       </c>
       <c r="O9">
-        <v>0.1924199420952639</v>
+        <v>0.3216689308110315</v>
       </c>
       <c r="P9">
-        <v>0.1924199420952639</v>
+        <v>0.3443838227428625</v>
       </c>
       <c r="Q9">
-        <v>2505.004989194668</v>
+        <v>6477.193494151352</v>
       </c>
       <c r="R9">
-        <v>2505.004989194668</v>
+        <v>58294.74144736216</v>
       </c>
       <c r="S9">
-        <v>0.1003728063308945</v>
+        <v>0.1683790647934153</v>
       </c>
       <c r="T9">
-        <v>0.1003728063308945</v>
+        <v>0.1897846426047357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H10">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I10">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J10">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.0602378691501</v>
+        <v>34.46883</v>
       </c>
       <c r="N10">
-        <v>22.0602378691501</v>
+        <v>103.40649</v>
       </c>
       <c r="O10">
-        <v>0.1322818710722491</v>
+        <v>0.1459427651899269</v>
       </c>
       <c r="P10">
-        <v>0.1322818710722491</v>
+        <v>0.156248622616578</v>
       </c>
       <c r="Q10">
-        <v>1722.10189550902</v>
+        <v>2938.73432794161</v>
       </c>
       <c r="R10">
-        <v>1722.10189550902</v>
+        <v>26448.60895147449</v>
       </c>
       <c r="S10">
-        <v>0.06900273683509241</v>
+        <v>0.07639440419093826</v>
       </c>
       <c r="T10">
-        <v>0.06900273683509241</v>
+        <v>0.0861062194054063</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H11">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I11">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J11">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.1361790957576</v>
+        <v>46.734022</v>
       </c>
       <c r="N11">
-        <v>38.1361790957576</v>
+        <v>93.46804400000001</v>
       </c>
       <c r="O11">
-        <v>0.228679543541457</v>
+        <v>0.1978742069030739</v>
       </c>
       <c r="P11">
-        <v>0.228679543541457</v>
+        <v>0.1412314945963808</v>
       </c>
       <c r="Q11">
-        <v>2977.047967380137</v>
+        <v>3984.436800848142</v>
       </c>
       <c r="R11">
-        <v>2977.047967380137</v>
+        <v>23906.62080508885</v>
       </c>
       <c r="S11">
-        <v>0.1192870514655922</v>
+        <v>0.1035781535415099</v>
       </c>
       <c r="T11">
-        <v>0.1192870514655922</v>
+        <v>0.07783051048399546</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.9993177092857</v>
+        <v>13.737404</v>
       </c>
       <c r="H12">
-        <v>11.9993177092857</v>
+        <v>41.212212</v>
       </c>
       <c r="I12">
-        <v>0.08018144632033275</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J12">
-        <v>0.08018144632033275</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.2044774161729</v>
+        <v>3.480095666666667</v>
       </c>
       <c r="N12">
-        <v>2.2044774161729</v>
+        <v>10.440287</v>
       </c>
       <c r="O12">
-        <v>0.01321891445947057</v>
+        <v>0.01473490062525521</v>
       </c>
       <c r="P12">
-        <v>0.01321891445947057</v>
+        <v>0.01577541664427219</v>
       </c>
       <c r="Q12">
-        <v>26.45222489960386</v>
+        <v>47.80748013164934</v>
       </c>
       <c r="R12">
-        <v>26.45222489960386</v>
+        <v>430.2673211848441</v>
       </c>
       <c r="S12">
-        <v>0.00105991168014511</v>
+        <v>0.001242788068932251</v>
       </c>
       <c r="T12">
-        <v>0.00105991168014511</v>
+        <v>0.001400780374835296</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.9993177092857</v>
+        <v>13.737404</v>
       </c>
       <c r="H13">
-        <v>11.9993177092857</v>
+        <v>41.212212</v>
       </c>
       <c r="I13">
-        <v>0.08018144632033275</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J13">
-        <v>0.08018144632033275</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>72.2767302348439</v>
+        <v>75.525599</v>
       </c>
       <c r="N13">
-        <v>72.2767302348439</v>
+        <v>226.576797</v>
       </c>
       <c r="O13">
-        <v>0.4333997288315594</v>
+        <v>0.3197791964707123</v>
       </c>
       <c r="P13">
-        <v>0.4333997288315594</v>
+        <v>0.3423606433999065</v>
       </c>
       <c r="Q13">
-        <v>867.2714490762276</v>
+        <v>1037.525665804996</v>
       </c>
       <c r="R13">
-        <v>867.2714490762276</v>
+        <v>9337.730992244964</v>
       </c>
       <c r="S13">
-        <v>0.03475061709255445</v>
+        <v>0.02697118767027042</v>
       </c>
       <c r="T13">
-        <v>0.03475061709255445</v>
+        <v>0.03039996224535214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.9993177092857</v>
+        <v>13.737404</v>
       </c>
       <c r="H14">
-        <v>11.9993177092857</v>
+        <v>41.212212</v>
       </c>
       <c r="I14">
-        <v>0.08018144632033275</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J14">
-        <v>0.08018144632033275</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.089277683948</v>
+        <v>75.97191733333334</v>
       </c>
       <c r="N14">
-        <v>32.089277683948</v>
+        <v>227.915752</v>
       </c>
       <c r="O14">
-        <v>0.1924199420952639</v>
+        <v>0.3216689308110315</v>
       </c>
       <c r="P14">
-        <v>0.1924199420952639</v>
+        <v>0.3443838227428625</v>
       </c>
       <c r="Q14">
-        <v>385.0494379911836</v>
+        <v>1043.656921062603</v>
       </c>
       <c r="R14">
-        <v>385.0494379911836</v>
+        <v>9392.912289563425</v>
       </c>
       <c r="S14">
-        <v>0.01542850925807294</v>
+        <v>0.02713057383454322</v>
       </c>
       <c r="T14">
-        <v>0.01542850925807294</v>
+        <v>0.03057961074417096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.9993177092857</v>
+        <v>13.737404</v>
       </c>
       <c r="H15">
-        <v>11.9993177092857</v>
+        <v>41.212212</v>
       </c>
       <c r="I15">
-        <v>0.08018144632033275</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J15">
-        <v>0.08018144632033275</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.0602378691501</v>
+        <v>34.46883</v>
       </c>
       <c r="N15">
-        <v>22.0602378691501</v>
+        <v>103.40649</v>
       </c>
       <c r="O15">
-        <v>0.1322818710722491</v>
+        <v>0.1459427651899269</v>
       </c>
       <c r="P15">
-        <v>0.1322818710722491</v>
+        <v>0.156248622616578</v>
       </c>
       <c r="Q15">
-        <v>264.7078029343479</v>
+        <v>473.5122431173199</v>
       </c>
       <c r="R15">
-        <v>264.7078029343479</v>
+        <v>4261.61018805588</v>
       </c>
       <c r="S15">
-        <v>0.01060655174453272</v>
+        <v>0.01230927387553255</v>
       </c>
       <c r="T15">
-        <v>0.01060655174453272</v>
+        <v>0.01387411876920647</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.9993177092857</v>
+        <v>13.737404</v>
       </c>
       <c r="H16">
-        <v>11.9993177092857</v>
+        <v>41.212212</v>
       </c>
       <c r="I16">
-        <v>0.08018144632033275</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J16">
-        <v>0.08018144632033275</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.1361790957576</v>
+        <v>46.734022</v>
       </c>
       <c r="N16">
-        <v>38.1361790957576</v>
+        <v>93.46804400000001</v>
       </c>
       <c r="O16">
-        <v>0.228679543541457</v>
+        <v>0.1978742069030739</v>
       </c>
       <c r="P16">
-        <v>0.228679543541457</v>
+        <v>0.1412314945963808</v>
       </c>
       <c r="Q16">
-        <v>457.6081291882152</v>
+        <v>642.0041407588881</v>
       </c>
       <c r="R16">
-        <v>457.6081291882152</v>
+        <v>3852.024844553328</v>
       </c>
       <c r="S16">
-        <v>0.01833585654502753</v>
+        <v>0.01668933573037331</v>
       </c>
       <c r="T16">
-        <v>0.01833585654502753</v>
+        <v>0.01254067074108614</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.1243864863653</v>
+        <v>15.421724</v>
       </c>
       <c r="H17">
-        <v>15.1243864863653</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I17">
-        <v>0.1010636781661359</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J17">
-        <v>0.1010636781661359</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.2044774161729</v>
+        <v>3.480095666666667</v>
       </c>
       <c r="N17">
-        <v>2.2044774161729</v>
+        <v>10.440287</v>
       </c>
       <c r="O17">
-        <v>0.01321891445947057</v>
+        <v>0.01473490062525521</v>
       </c>
       <c r="P17">
-        <v>0.01321891445947057</v>
+        <v>0.01577541664427219</v>
       </c>
       <c r="Q17">
-        <v>33.3413684426629</v>
+        <v>53.66907486492935</v>
       </c>
       <c r="R17">
-        <v>33.3413684426629</v>
+        <v>483.0216737843641</v>
       </c>
       <c r="S17">
-        <v>0.001335952116637614</v>
+        <v>0.001395164223863996</v>
       </c>
       <c r="T17">
-        <v>0.001335952116637614</v>
+        <v>0.001572527700672302</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.1243864863653</v>
+        <v>15.421724</v>
       </c>
       <c r="H18">
-        <v>15.1243864863653</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I18">
-        <v>0.1010636781661359</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J18">
-        <v>0.1010636781661359</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>72.2767302348439</v>
+        <v>75.525599</v>
       </c>
       <c r="N18">
-        <v>72.2767302348439</v>
+        <v>226.576797</v>
       </c>
       <c r="O18">
-        <v>0.4333997288315594</v>
+        <v>0.3197791964707123</v>
       </c>
       <c r="P18">
-        <v>0.4333997288315594</v>
+        <v>0.3423606433999065</v>
       </c>
       <c r="Q18">
-        <v>1093.141202042543</v>
+        <v>1164.734942712676</v>
       </c>
       <c r="R18">
-        <v>1093.141202042543</v>
+        <v>10482.61448441409</v>
       </c>
       <c r="S18">
-        <v>0.0438009707119233</v>
+        <v>0.030278079628663</v>
       </c>
       <c r="T18">
-        <v>0.0438009707119233</v>
+        <v>0.03412725048766426</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.1243864863653</v>
+        <v>15.421724</v>
       </c>
       <c r="H19">
-        <v>15.1243864863653</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I19">
-        <v>0.1010636781661359</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J19">
-        <v>0.1010636781661359</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>32.089277683948</v>
+        <v>75.97191733333334</v>
       </c>
       <c r="N19">
-        <v>32.089277683948</v>
+        <v>227.915752</v>
       </c>
       <c r="O19">
-        <v>0.1924199420952639</v>
+        <v>0.3216689308110315</v>
       </c>
       <c r="P19">
-        <v>0.1924199420952639</v>
+        <v>0.3443838227428625</v>
       </c>
       <c r="Q19">
-        <v>485.3306377603267</v>
+        <v>1171.617940865483</v>
       </c>
       <c r="R19">
-        <v>485.3306377603267</v>
+        <v>10544.56146778935</v>
       </c>
       <c r="S19">
-        <v>0.01944666710066226</v>
+        <v>0.03045700786247149</v>
       </c>
       <c r="T19">
-        <v>0.01944666710066226</v>
+        <v>0.03432892538677899</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.1243864863653</v>
+        <v>15.421724</v>
       </c>
       <c r="H20">
-        <v>15.1243864863653</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I20">
-        <v>0.1010636781661359</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J20">
-        <v>0.1010636781661359</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>22.0602378691501</v>
+        <v>34.46883</v>
       </c>
       <c r="N20">
-        <v>22.0602378691501</v>
+        <v>103.40649</v>
       </c>
       <c r="O20">
-        <v>0.1322818710722491</v>
+        <v>0.1459427651899269</v>
       </c>
       <c r="P20">
-        <v>0.1322818710722491</v>
+        <v>0.156248622616578</v>
       </c>
       <c r="Q20">
-        <v>333.6475635141778</v>
+        <v>531.5687828629201</v>
       </c>
       <c r="R20">
-        <v>333.6475635141778</v>
+        <v>4784.119045766281</v>
       </c>
       <c r="S20">
-        <v>0.01336889244526007</v>
+        <v>0.0138184932428917</v>
       </c>
       <c r="T20">
-        <v>0.01336889244526007</v>
+        <v>0.01557520113712328</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.1243864863653</v>
+        <v>15.421724</v>
       </c>
       <c r="H21">
-        <v>15.1243864863653</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I21">
-        <v>0.1010636781661359</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J21">
-        <v>0.1010636781661359</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>38.1361790957576</v>
+        <v>46.734022</v>
       </c>
       <c r="N21">
-        <v>38.1361790957576</v>
+        <v>93.46804400000001</v>
       </c>
       <c r="O21">
-        <v>0.228679543541457</v>
+        <v>0.1978742069030739</v>
       </c>
       <c r="P21">
-        <v>0.228679543541457</v>
+        <v>0.1412314945963808</v>
       </c>
       <c r="Q21">
-        <v>576.7863117574831</v>
+        <v>720.7191886939282</v>
       </c>
       <c r="R21">
-        <v>576.7863117574831</v>
+        <v>4324.315132163569</v>
       </c>
       <c r="S21">
-        <v>0.02311119579165268</v>
+        <v>0.0187355871150878</v>
       </c>
       <c r="T21">
-        <v>0.02311119579165268</v>
+        <v>0.01407826128895284</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.3400477716472</v>
+        <v>24.498552</v>
       </c>
       <c r="H22">
-        <v>22.3400477716472</v>
+        <v>48.997104</v>
       </c>
       <c r="I22">
-        <v>0.1492799327923312</v>
+        <v>0.1504130817588954</v>
       </c>
       <c r="J22">
-        <v>0.1492799327923312</v>
+        <v>0.1055683410083432</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.2044774161729</v>
+        <v>3.480095666666667</v>
       </c>
       <c r="N22">
-        <v>2.2044774161729</v>
+        <v>10.440287</v>
       </c>
       <c r="O22">
-        <v>0.01321891445947057</v>
+        <v>0.01473490062525521</v>
       </c>
       <c r="P22">
-        <v>0.01321891445947057</v>
+        <v>0.01577541664427219</v>
       </c>
       <c r="Q22">
-        <v>49.24813078881997</v>
+        <v>85.25730465480801</v>
       </c>
       <c r="R22">
-        <v>49.24813078881997</v>
+        <v>511.5438279288481</v>
       </c>
       <c r="S22">
-        <v>0.001973318662097342</v>
+        <v>0.002216321812455711</v>
       </c>
       <c r="T22">
-        <v>0.001973318662097342</v>
+        <v>0.001665384563851219</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.3400477716472</v>
+        <v>24.498552</v>
       </c>
       <c r="H23">
-        <v>22.3400477716472</v>
+        <v>48.997104</v>
       </c>
       <c r="I23">
-        <v>0.1492799327923312</v>
+        <v>0.1504130817588954</v>
       </c>
       <c r="J23">
-        <v>0.1492799327923312</v>
+        <v>0.1055683410083432</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>72.2767302348439</v>
+        <v>75.525599</v>
       </c>
       <c r="N23">
-        <v>72.2767302348439</v>
+        <v>226.576797</v>
       </c>
       <c r="O23">
-        <v>0.4333997288315594</v>
+        <v>0.3197791964707123</v>
       </c>
       <c r="P23">
-        <v>0.4333997288315594</v>
+        <v>0.3423606433999065</v>
       </c>
       <c r="Q23">
-        <v>1614.66560622487</v>
+        <v>1850.267814432648</v>
       </c>
       <c r="R23">
-        <v>1614.66560622487</v>
+        <v>11101.60688659589</v>
       </c>
       <c r="S23">
-        <v>0.06469788239218976</v>
+        <v>0.04809897442354311</v>
       </c>
       <c r="T23">
-        <v>0.06469788239218976</v>
+        <v>0.03614244515027711</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.3400477716472</v>
+        <v>24.498552</v>
       </c>
       <c r="H24">
-        <v>22.3400477716472</v>
+        <v>48.997104</v>
       </c>
       <c r="I24">
-        <v>0.1492799327923312</v>
+        <v>0.1504130817588954</v>
       </c>
       <c r="J24">
-        <v>0.1492799327923312</v>
+        <v>0.1055683410083432</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.089277683948</v>
+        <v>75.97191733333334</v>
       </c>
       <c r="N24">
-        <v>32.089277683948</v>
+        <v>227.915752</v>
       </c>
       <c r="O24">
-        <v>0.1924199420952639</v>
+        <v>0.3216689308110315</v>
       </c>
       <c r="P24">
-        <v>0.1924199420952639</v>
+        <v>0.3443838227428625</v>
       </c>
       <c r="Q24">
-        <v>716.8759964170507</v>
+        <v>1861.201967330368</v>
       </c>
       <c r="R24">
-        <v>716.8759964170507</v>
+        <v>11167.21180398221</v>
       </c>
       <c r="S24">
-        <v>0.02872443602388526</v>
+        <v>0.04838321518937615</v>
       </c>
       <c r="T24">
-        <v>0.02872443602388526</v>
+        <v>0.03635602883707532</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.3400477716472</v>
+        <v>24.498552</v>
       </c>
       <c r="H25">
-        <v>22.3400477716472</v>
+        <v>48.997104</v>
       </c>
       <c r="I25">
-        <v>0.1492799327923312</v>
+        <v>0.1504130817588954</v>
       </c>
       <c r="J25">
-        <v>0.1492799327923312</v>
+        <v>0.1055683410083432</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.0602378691501</v>
+        <v>34.46883</v>
       </c>
       <c r="N25">
-        <v>22.0602378691501</v>
+        <v>103.40649</v>
       </c>
       <c r="O25">
-        <v>0.1322818710722491</v>
+        <v>0.1459427651899269</v>
       </c>
       <c r="P25">
-        <v>0.1322818710722491</v>
+        <v>0.156248622616578</v>
       </c>
       <c r="Q25">
-        <v>492.8267678507138</v>
+        <v>844.4364241341599</v>
       </c>
       <c r="R25">
-        <v>492.8267678507138</v>
+        <v>5066.618544804959</v>
       </c>
       <c r="S25">
-        <v>0.01974702882330917</v>
+        <v>0.02195170107263175</v>
       </c>
       <c r="T25">
-        <v>0.01974702882330917</v>
+        <v>0.01649490787447083</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.3400477716472</v>
+        <v>24.498552</v>
       </c>
       <c r="H26">
-        <v>22.3400477716472</v>
+        <v>48.997104</v>
       </c>
       <c r="I26">
-        <v>0.1492799327923312</v>
+        <v>0.1504130817588954</v>
       </c>
       <c r="J26">
-        <v>0.1492799327923312</v>
+        <v>0.1055683410083432</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>38.1361790957576</v>
+        <v>46.734022</v>
       </c>
       <c r="N26">
-        <v>38.1361790957576</v>
+        <v>93.46804400000001</v>
       </c>
       <c r="O26">
-        <v>0.228679543541457</v>
+        <v>0.1978742069030739</v>
       </c>
       <c r="P26">
-        <v>0.228679543541457</v>
+        <v>0.1412314945963808</v>
       </c>
       <c r="Q26">
-        <v>851.964062827318</v>
+        <v>1144.915868136144</v>
       </c>
       <c r="R26">
-        <v>851.964062827318</v>
+        <v>4579.663472544577</v>
       </c>
       <c r="S26">
-        <v>0.03413726689084969</v>
+        <v>0.02976286926088863</v>
       </c>
       <c r="T26">
-        <v>0.03413726689084969</v>
+        <v>0.01490957458266871</v>
       </c>
     </row>
   </sheetData>
